--- a/biology/Botanique/Firmiana/Firmiana.xlsx
+++ b/biology/Botanique/Firmiana/Firmiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Firmiana est un genre d'arbres de la famille des Malvaceae (ou des Sterculiaceae selon la classification classique) originaire d'Asie du Sud-Est.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de Firmaniana a été créé en l'honneur de Karl Joseph von Firmian (1716 - 1782), ambassadeur d'Autriche en Italie, mécène ayant rassemblé une bibliothèque de 40 000 volumes.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (9 mai 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (9 mai 2023) :
 Firmiana calcarea C. F. Liang &amp; S. L. Mo ex Y. S. Huang
 Firmiana colorata (Roxburgh) R. Brown
 Firmiana danxiaensis H. H. Hsue &amp; H. S. Kiu
